--- a/Reports/ForPopulation/InformationBill_UK_2_na_LIST/InformationBill_UK_2_na_LIST.xlsx
+++ b/Reports/ForPopulation/InformationBill_UK_2_na_LIST/InformationBill_UK_2_na_LIST.xlsx
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -636,10 +636,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -647,44 +657,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -700,6 +672,35 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1000,7 +1001,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1019,18 +1020,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="12" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" t="s">
         <v>1</v>
       </c>
@@ -1048,48 +1049,48 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -1226,51 +1227,51 @@
       <c r="A12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="44"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1282,10 +1283,10 @@
       <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="58"/>
+      <c r="J14" s="48"/>
       <c r="L14" s="9" t="s">
         <v>2</v>
       </c>
@@ -1301,12 +1302,12 @@
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
@@ -1314,10 +1315,10 @@
       <c r="H15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="60"/>
+      <c r="J15" s="50"/>
       <c r="L15" s="11" t="s">
         <v>41</v>
       </c>
@@ -1365,67 +1366,67 @@
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="38"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="38"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1">
       <c r="A21" s="21"/>
@@ -1441,29 +1442,29 @@
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
       <c r="L23" s="13" t="s">
         <v>47</v>
       </c>
@@ -1621,15 +1622,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="I18:J18"/>
@@ -1646,6 +1638,15 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="10000" orientation="portrait" r:id="rId1"/>
